--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/Tabela de Dominio - v1.28 - Imunobiológico.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/Tabela de Dominio - v1.28 - Imunobiológico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elder.morais\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\587AMHEH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\_SISTEMAS\RNDS\TABELA DE DOMÍNIO\Imunobiológico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="352">
   <si>
     <t>Código</t>
   </si>
@@ -1175,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1219,6 +1219,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,11 +1530,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="58.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1593,7 +1600,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1612,7 +1619,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1631,7 +1638,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1650,7 +1657,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1673,7 +1680,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1692,7 +1699,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1711,7 +1718,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1730,7 +1737,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1753,7 +1760,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1772,7 +1779,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1791,7 +1798,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1858,7 +1865,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1881,7 +1888,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1900,7 +1907,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1942,11 +1949,17 @@
       <c r="F19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="16">
+        <v>45026</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1965,7 +1978,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1984,7 +1997,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2007,7 +2020,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2030,7 +2043,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2049,7 +2062,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2072,7 +2085,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2095,7 +2108,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2143,7 +2156,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2166,7 +2179,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2189,7 +2202,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2212,7 +2225,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2231,7 +2244,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2250,7 +2263,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2273,7 +2286,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2292,7 +2305,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2438,7 +2451,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2461,7 +2474,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2484,7 +2497,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2559,7 +2572,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2582,7 +2595,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2605,7 +2618,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2624,7 +2637,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2643,7 +2656,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2662,7 +2675,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2710,7 +2723,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2729,7 +2742,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2748,7 +2761,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2771,7 +2784,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2790,7 +2803,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2813,7 +2826,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2836,7 +2849,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2859,7 +2872,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2882,7 +2895,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2901,7 +2914,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2920,7 +2933,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2939,7 +2952,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2962,7 +2975,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2985,7 +2998,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3004,7 +3017,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3056,7 +3069,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3198,7 +3211,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3221,7 +3234,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3244,7 +3257,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3267,7 +3280,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3286,7 +3299,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3305,7 +3318,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3324,7 +3337,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3343,7 +3356,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3362,7 +3375,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3414,7 +3427,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -3437,7 +3450,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3460,7 +3473,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3483,7 +3496,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3506,7 +3519,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3529,7 +3542,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3598,7 +3611,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3617,7 +3630,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3636,7 +3649,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3659,7 +3672,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3682,7 +3695,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3705,7 +3718,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3728,7 +3741,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3749,7 +3762,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3768,7 +3781,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3787,7 +3800,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3806,7 +3819,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3826,7 +3839,13 @@
       <c r="I104" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I104"/>
+  <autoFilter ref="A1:I104">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
